--- a/data/trans_dic/P1801-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1801-Edad-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_dic/P1801-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1801-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,48 +544,84 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,12 +666,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,45%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -627,6 +682,36 @@
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>40,89%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>39,65%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>33,46%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>29,2%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0; 0,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>22,37; 30,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>13,6; 26,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0; 0,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0; 0,45</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>36,14; 46,12</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>32,51; 47,31</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,19</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,22</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>30,03; 36,77</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>24,03; 34,12</t>
         </is>
       </c>
     </row>
@@ -691,12 +806,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -707,6 +822,36 @@
       <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>49,28%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>40,86%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39,57%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>37,59%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0; 0,27</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,29</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>26,85; 34,35</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28,18; 39,48</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,32</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,34</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,63</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,33</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,42</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,17</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,25</t>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>45,03; 53,47</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>35,31; 46,16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>36,92; 42,52</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>33,52; 41,32</t>
         </is>
       </c>
     </row>
@@ -771,12 +946,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,89%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -787,6 +962,36 @@
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>52,04%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>47,09%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>46,93%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>44,91%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>38,27; 45,86</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>38,64; 47,09</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,29</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,23</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,29</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>48,5; 56,12</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>43,69; 50,81</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>0; 0,15</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,14</t>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>44,39; 49,73</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>42,09; 47,6</t>
         </is>
       </c>
     </row>
@@ -851,12 +1086,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -867,6 +1102,36 @@
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>52,03%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>55,78%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>50,09%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>55,88%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0; 0,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>43,91; 52,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>51,06; 65,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0; 0,36</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>48,03; 55,94</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>52,14; 58,94</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,19</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,18</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>47,14; 53,16</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>52,96; 61,17</t>
         </is>
       </c>
     </row>
@@ -931,12 +1226,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,97%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,28%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -947,6 +1242,36 @@
       <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>66,26%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>63,63%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>62,19%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>60,44%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0; 0,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>53,15; 62,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>53,18; 61,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0; 0,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0; 0,47</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>61,88; 71,12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>60,48; 66,57</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,24</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>58,65; 65,44</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>58,11; 63,01</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1366,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,11%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1027,6 +1382,36 @@
       <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>73,81%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>72,27%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>72,64%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>70,78%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>67,37; 74,79</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>65,72; 71,28</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>0; 0,29</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,11</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0; 0,28</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>70,31; 76,8</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>68,29; 80,44</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,16</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,16</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>69,97; 75,22</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>67,99; 77,15</t>
         </is>
       </c>
     </row>
@@ -1091,12 +1506,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,51%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,71%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,6 +1522,36 @@
       <c r="H16" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>57,12%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>56,67%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>51,93%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>53,39%</t>
         </is>
       </c>
     </row>
@@ -1129,22 +1574,52 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>44,91; 48,29</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>47,75; 52,86</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,06</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>55,38; 58,92</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>54,71; 60,87</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,03</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>50,81; 53,32</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>51,97; 56,2</t>
         </is>
       </c>
     </row>
@@ -1158,15 +1633,15 @@
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P1801-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1801-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,65%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>29,8%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,6; 26,74</t>
+          <t>14,53; 29,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,51; 47,31</t>
+          <t>33,58; 48,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,03; 34,12</t>
+          <t>24,72; 35,34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>34,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,86%</t>
+          <t>37,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>37,59%</t>
+          <t>36,09%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,18; 39,48</t>
+          <t>28,72; 40,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,31; 46,16</t>
+          <t>23,19; 44,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,52; 41,32</t>
+          <t>27,27; 40,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42,62%</t>
+          <t>43,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>47,09%</t>
+          <t>47,91%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>44,91%</t>
+          <t>45,79%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>38,64; 47,09</t>
+          <t>39,75; 48,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>43,69; 50,81</t>
+          <t>44,53; 51,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>42,09; 47,6</t>
+          <t>42,99; 48,52</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>55,98%</t>
+          <t>66,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>55,78%</t>
+          <t>54,36%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>55,88%</t>
+          <t>61,09%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>51,06; 65,85</t>
+          <t>52,4; 84,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,14; 58,94</t>
+          <t>45,11; 58,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>52,96; 61,17</t>
+          <t>53,05; 75,69</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>57,28%</t>
+          <t>57,88%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>63,63%</t>
+          <t>63,85%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>60,44%</t>
+          <t>60,83%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>53,18; 61,33</t>
+          <t>53,82; 61,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>60,48; 66,57</t>
+          <t>60,81; 66,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>58,11; 63,01</t>
+          <t>58,45; 63,36</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1366,12 +1366,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>71,11%</t>
+          <t>67,78%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>68,57%</t>
+          <t>64,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1386,12 +1386,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>73,81%</t>
+          <t>75,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>72,27%</t>
+          <t>77,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>72,64%</t>
+          <t>72,01%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>70,78%</t>
+          <t>73,01%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0; 0,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>67,37; 74,79</t>
+          <t>62,23; 72,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>65,72; 71,28</t>
+          <t>61,15; 69,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>0; 0,56</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>70,55; 79,99</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>65,69; 91,9</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>0; 0,28</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>70,31; 76,8</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>68,29; 80,44</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>69,97; 75,22</t>
+          <t>68,34; 75,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>67,99; 77,15</t>
+          <t>65,04; 87,27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>46,51%</t>
+          <t>75,43%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>49,71%</t>
+          <t>73,71%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>57,12%</t>
+          <t>71,97%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>56,67%</t>
+          <t>71,01%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1546,12 +1546,12 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>51,93%</t>
+          <t>73,32%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>53,39%</t>
+          <t>72,09%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0; 0,87</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,86</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>70,91; 80,19</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>69,05; 77,73</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,66</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,55</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>66,43; 76,32</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>67,39; 73,81</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,38</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,34</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>69,41; 76,75</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>69,57; 74,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>46,51%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>52,85%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>57,12%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>57,11%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>51,93%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>55,04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>44,91; 48,29</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>47,75; 52,86</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>48,74; 63,18</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>55,38; 58,92</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>54,71; 60,87</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>53,23; 64,1</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>50,81; 53,32</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>51,97; 56,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>51,95; 61,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P1801-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1801-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,37; 30,98</t>
+          <t>22,17; 31,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,53; 29,55</t>
+          <t>14,99; 29,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +755,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>36,14; 46,12</t>
+          <t>36,27; 46,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,58; 48,69</t>
+          <t>32,89; 47,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,03; 36,77</t>
+          <t>30,37; 37,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,72; 35,34</t>
+          <t>25,02; 35,53</t>
         </is>
       </c>
     </row>
@@ -874,12 +875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,85; 34,35</t>
+          <t>26,28; 34,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,72; 40,34</t>
+          <t>29,28; 40,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>45,03; 53,47</t>
+          <t>44,85; 53,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,19; 44,89</t>
+          <t>23,5; 44,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>36,92; 42,52</t>
+          <t>36,78; 42,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,27; 40,65</t>
+          <t>28,11; 40,81</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,27; 45,86</t>
+          <t>37,89; 45,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,75; 48,36</t>
+          <t>39,47; 48,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1035,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>48,5; 56,12</t>
+          <t>48,47; 55,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>44,53; 51,68</t>
+          <t>44,46; 51,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>44,39; 49,73</t>
+          <t>44,0; 49,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>42,99; 48,52</t>
+          <t>43,07; 48,83</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1155,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,91; 52,35</t>
+          <t>43,94; 52,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>52,4; 84,42</t>
+          <t>51,95; 84,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1175,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,03; 55,94</t>
+          <t>48,19; 56,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>45,11; 58,17</t>
+          <t>44,87; 58,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>47,14; 53,16</t>
+          <t>47,45; 53,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>53,05; 75,69</t>
+          <t>52,6; 75,93</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1295,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>53,15; 62,37</t>
+          <t>53,69; 62,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>53,82; 61,75</t>
+          <t>53,58; 61,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1315,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>61,88; 71,12</t>
+          <t>61,92; 71,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>60,81; 66,81</t>
+          <t>61,07; 67,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,12 +1335,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>58,65; 65,44</t>
+          <t>59,2; 65,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>58,45; 63,36</t>
+          <t>58,07; 63,28</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1435,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>62,23; 72,64</t>
+          <t>62,38; 72,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>61,15; 69,08</t>
+          <t>60,71; 68,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1455,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>70,55; 79,99</t>
+          <t>71,27; 80,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>65,69; 91,9</t>
+          <t>65,53; 90,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1475,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>68,34; 75,0</t>
+          <t>68,63; 75,36</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>65,04; 87,27</t>
+          <t>64,94; 87,42</t>
         </is>
       </c>
     </row>
@@ -1574,12 +1575,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>70,91; 80,19</t>
+          <t>69,71; 80,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>69,05; 77,73</t>
+          <t>69,56; 77,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,12 +1595,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>66,43; 76,32</t>
+          <t>66,71; 76,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>67,39; 73,81</t>
+          <t>67,74; 73,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1614,12 +1615,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>69,41; 76,75</t>
+          <t>69,3; 76,8</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>69,57; 74,54</t>
+          <t>69,48; 74,72</t>
         </is>
       </c>
     </row>
@@ -1714,12 +1715,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>44,91; 48,29</t>
+          <t>44,88; 48,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>48,74; 63,18</t>
+          <t>48,68; 65,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1734,12 +1735,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>55,38; 58,92</t>
+          <t>55,37; 58,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>53,23; 64,1</t>
+          <t>53,53; 65,39</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1754,12 +1755,12 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>50,81; 53,32</t>
+          <t>50,74; 53,2</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>51,95; 61,98</t>
+          <t>51,88; 60,7</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que en los últimos 12 meses han visitado un laboratorio de análisis</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>110963</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>85304</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>161829</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>127197</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>272792</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>212500</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1897</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1951</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>92996; 132141</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>59968; 119378</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1832</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>143525; 182258</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>102960; 149726</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1867</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1956</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>247592; 302482</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>178392; 253329</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>178919</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>146652</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>277686</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>190446</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>456605</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>337098</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1975</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>155208; 202759</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>123995; 171618</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2029</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2048</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>252730; 300555</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>119998; 228005</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2018</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2011</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>424496; 490329</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>262557; 381174</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>280302</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>233496</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>344158</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>259564</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>624461</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>493060</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1997</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2008</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>253498; 307112</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>211185; 257353</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2010</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>320586; 369444</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>240865; 279232</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2028</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>585352; 660327</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>463794; 525806</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>311066</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>589579</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>337702</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>386843</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>648768</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>976423</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2055</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2149</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>283888; 336264</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>460688; 744994</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2191</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>312778; 366134</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>319299; 413550</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2013</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2172</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>614542; 686625</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>840788; 1213587</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>277033</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>324262</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>329213</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>349035</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>606246</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>673297</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1889</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2092</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>256600; 299664</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>300184; 345382</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1953</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2112</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>307626; 353930</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>333836; 367717</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1924</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2106</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>577069; 639589</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>642777; 700450</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>226614</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>239096</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>286171</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>473547</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>512784</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>712643</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1847</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2101</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>208566; 243641</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>223501; 253492</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>269247; 302501</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>398402; 551209</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1808</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2033</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>488722; 536607</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>633853; 853342</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>193853</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>208433</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>288005</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>301622</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>481857</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>510055</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1822</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2150</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>179163; 205865</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>196690; 220009</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2202</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2127</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>266960; 307829</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>287707; 313889</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2141</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>455390; 504721</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>491557; 528647</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1519</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1848</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>3211</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>3397</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>5059</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1578751</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1826823</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2024764</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>2088253</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>3603515</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>3915075</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1523230; 1647430</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1682599; 2247966</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1962615; 2079816</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1957076; 2390887</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2061</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>3520858; 3691555</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>3690330; 4317366</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>